--- a/linh kien new.xlsx
+++ b/linh kien new.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{E59EED07-905B-4540-8A2D-3215B01911F4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="3G4G" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>STT</t>
   </si>
@@ -51,91 +50,122 @@
     <t>Đơn giá (VNĐ)</t>
   </si>
   <si>
-    <t>Đơn giá (Tệ)</t>
-  </si>
-  <si>
-    <t>Tỷ Giá (Tệ/VNĐ)</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.6.4f1af694bBazml&amp;id=572985970514&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.90.4055286da7oSnB&amp;id=38932240927&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.50.3690194csdmc2K&amp;id=547032768763&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.19.8c4755cfxoyZ3f&amp;id=572285294604&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
-    <t>SD card 4g</t>
-  </si>
-  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.288c34b8QLJRzP&amp;id=539555332683&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
   <si>
-    <t>Simcom</t>
-  </si>
-  <si>
-    <t>Giá</t>
-  </si>
-  <si>
-    <t>Quectel</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.13.1940339cJxYYVS&amp;id=584065691811&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.35.78ba7c47IX77ax&amp;id=573381278247&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
-    <t>Loại</t>
-  </si>
-  <si>
-    <t>4G</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.174.77444423h5c3o0&amp;id=524475124220&amp;ns=1&amp;abbucket=12</t>
-  </si>
-  <si>
-    <t>3G</t>
-  </si>
-  <si>
-    <t>Tên</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.13.23ca39fcBhAM31&amp;id=542029187449&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
-    <t>Sim3520E -GNSS</t>
-  </si>
-  <si>
-    <t>Sim5300E - not GNSS</t>
-  </si>
-  <si>
-    <t>Sim7500SA - not GNSS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sim7500E - not GNSS </t>
-  </si>
-  <si>
-    <t>Sim5360E - GNSS</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.31.47cf31b1NaVLFi&amp;id=561127642535&amp;ns=1&amp;abbucket=12#detail</t>
+    <t>lora module</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.5a508a40z1DD5G&amp;id=571285392827&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>lora anten</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.22.59b35089kW1oDW&amp;id=534803854454&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>sma to ipex for antenna</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.168.72667503nhdlvQ&amp;id=524721396904&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>raspberry pi 0</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.76.d4e52688uG02Q2&amp;id=554245082547&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>anten 3g</t>
+  </si>
+  <si>
+    <t>anten gps</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=45428297999&amp;ali_refid=a3_430008_1006:1123179335:N:gps%E5%A4%A9%E7%BA%BF:8f9d07cdc3b04fe1bf541984167e80c4&amp;ali_trackid=1_8f9d07cdc3b04fe1bf541984167e80c4&amp;spm=a230r.1.0.0</t>
+  </si>
+  <si>
+    <t>connector 2, 3, 4, 5, 6 pin</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.998.3.1ca9523cAZuvIe&amp;scm=1007.11224.103459.0&amp;id=561484099327&amp;pvid=025f70d0-8d88-4139-8045-d8598b8e6e7c</t>
+  </si>
+  <si>
+    <t>Connector nguồn AC</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.999.1.5caa523cCW4ekd&amp;id=524438533584&amp;ns=1#detail</t>
+  </si>
+  <si>
+    <t>https://www.mouser.vn/ProductDetail/STMicroelectronics/STM32L451RCT6?qs=%2fha2pyFadujQIxAB8Q0CXWmXl%2fpD1XUIk5geXQSjzXCAoBiJ6dD15g==</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Đơn giá </t>
+  </si>
+  <si>
+    <t>Tỷ Giá (VNĐ)</t>
+  </si>
+  <si>
+    <t>BNC to SMA female Q9</t>
+  </si>
+  <si>
+    <t>SMA-KE inner hole positive foot</t>
+  </si>
+  <si>
+    <t>Đầu bảo vệ BNC và antenna</t>
+  </si>
+  <si>
+    <t>https://shop.sandisk.com/store/sdiskus/pd/productID.5163153200/varProductID.5163153200</t>
+  </si>
+  <si>
+    <t>Micro SD Card cho raspberry</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/STM32L471RET6/497-17538-ND/6167034?utm_campaign=buynow&amp;WT.z_cid=ref_octopart_dkc_buynow&amp;utm_medium=aggregator&amp;curr=usd&amp;site=us&amp;utm_source=octopart</t>
+  </si>
+  <si>
+    <t>stm32L471RET6</t>
+  </si>
+  <si>
+    <t>Sim5360E</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.35.600331b1PKdgWM&amp;id=575845105628&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flash </t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.3a0f3ca6bxkhH4&amp;id=564671939424&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>Header 2 - 40 pin đơn</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.7f4d7dd8frKmcT&amp;id=574051427007&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>Vỏ hộp cho bộ cảm biến nhiệt độ độ ẩm không khí và ánh sáng</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=2013.1.w4004-13949065572.22.38d832c9kPcbJo&amp;id=552157172714</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,26 +196,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,20 +210,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -234,50 +234,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -309,50 +273,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -663,23 +604,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FB7F6B0-7A22-47C1-80C6-1191ADE4C904}">
-  <dimension ref="A2:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="4" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="55.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="8" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -702,10 +643,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -718,375 +659,578 @@
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C4" s="5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.96</v>
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>16.5</v>
       </c>
       <c r="F4" s="10">
         <v>3500</v>
       </c>
-      <c r="G4" s="8">
+      <c r="G4" s="10">
         <f>E4*F4</f>
-        <v>3360</v>
+        <v>57750</v>
       </c>
       <c r="H4" s="8">
-        <f>G4*D4</f>
-        <v>10080</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>10</v>
+        <f t="shared" ref="H4:H8" si="0">G4*D4</f>
+        <v>57750</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="C5" s="5" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D5" s="2">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8.6</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="12">
+        <v>5.5</v>
       </c>
       <c r="F5" s="10">
         <v>3500</v>
       </c>
-      <c r="G5" s="8">
-        <f>E5*F5</f>
-        <v>30100</v>
+      <c r="G5" s="10">
+        <f t="shared" ref="G5:G24" si="1">E5*F5</f>
+        <v>19250</v>
       </c>
       <c r="H5" s="8">
-        <f t="shared" ref="H5:H13" si="0">G5*D5</f>
-        <v>90300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>19250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="C6" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
+      </c>
+      <c r="E6" s="12">
+        <v>4</v>
       </c>
       <c r="F6" s="10">
         <v>3500</v>
       </c>
-      <c r="G6" s="8">
-        <f>E6*F6</f>
-        <v>245.00000000000003</v>
+      <c r="G6" s="10">
+        <f t="shared" si="1"/>
+        <v>14000</v>
       </c>
       <c r="H6" s="8">
         <f t="shared" si="0"/>
-        <v>735.00000000000011</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>11</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>4</v>
+      </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+        <v>15</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="12">
+        <v>60</v>
+      </c>
+      <c r="F7" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="1"/>
+        <v>210000</v>
+      </c>
       <c r="H7" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210000</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F8" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="1"/>
+        <v>14349.999999999998</v>
+      </c>
       <c r="H8" s="8">
         <f t="shared" si="0"/>
+        <v>14349.999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="12">
+        <v>7</v>
+      </c>
+      <c r="F9" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="1"/>
+        <v>24500</v>
+      </c>
+      <c r="H9" s="8">
+        <f t="shared" ref="H9:H24" si="2">G9*D9</f>
+        <v>24500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>7</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="1"/>
+        <v>35000</v>
+      </c>
+      <c r="H10" s="8">
+        <f t="shared" si="2"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="F11" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="1"/>
+        <v>2450</v>
+      </c>
+      <c r="H11" s="8">
+        <f t="shared" si="2"/>
+        <v>2450</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>9</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="13">
+        <v>8</v>
+      </c>
+      <c r="F12" s="10">
+        <v>23000</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="1"/>
+        <v>184000</v>
+      </c>
+      <c r="H12" s="8">
+        <f t="shared" si="2"/>
+        <v>184000</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>8.6</v>
+      </c>
+      <c r="F13" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="1"/>
+        <v>30100</v>
+      </c>
+      <c r="H13" s="8">
+        <f t="shared" si="2"/>
+        <v>30100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>11</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="12">
+        <v>0.6</v>
+      </c>
+      <c r="F14" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="1"/>
+        <v>2100</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" si="2"/>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>12</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="F15" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="1"/>
+        <v>175</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="14">
+        <v>7.5</v>
+      </c>
+      <c r="F16" s="10">
+        <v>23000</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="1"/>
+        <v>172500</v>
+      </c>
+      <c r="H16" s="8">
+        <f t="shared" si="2"/>
+        <v>172500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>14</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12">
+        <v>108</v>
+      </c>
+      <c r="F17" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="1"/>
+        <v>378000</v>
+      </c>
+      <c r="H17" s="8">
+        <f t="shared" si="2"/>
+        <v>378000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>15</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="1"/>
+        <v>5250</v>
+      </c>
+      <c r="H18" s="8">
+        <f t="shared" si="2"/>
+        <v>5250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12">
+        <v>0.4</v>
+      </c>
+      <c r="F19" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="1"/>
+        <v>1400</v>
+      </c>
+      <c r="H19" s="8">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="3">
+        <v>12</v>
+      </c>
+      <c r="F20" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="1"/>
+        <v>42000</v>
+      </c>
+      <c r="H20" s="8">
+        <f t="shared" si="2"/>
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="8">
-        <f t="shared" si="0"/>
+      <c r="H21" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="8">
-        <f t="shared" si="0"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="8">
-        <f t="shared" si="0"/>
+      <c r="H22" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="8">
-        <f t="shared" si="0"/>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="8">
-        <f t="shared" si="0"/>
+      <c r="H23" s="8">
+        <f t="shared" si="2"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="15">
+        <f>SUM(H4:H24)</f>
+        <v>1192825</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{76F6C535-3012-4121-BB6E-F8F316E6E6F7}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{A9F91ADF-75E1-4881-871F-7F696D1D12FB}"/>
-    <hyperlink ref="C7" r:id="rId3" location="detail" xr:uid="{19C61A8B-A3FA-4B86-A190-5CE8ECE95799}"/>
-    <hyperlink ref="C6" r:id="rId4" location="detail" xr:uid="{47628ABF-DF19-47AD-BD45-2F8899E8CBB8}"/>
-    <hyperlink ref="C8" r:id="rId5" location="detail" xr:uid="{B44E9EB1-5836-44F8-A3B1-CDCC97FFD848}"/>
-    <hyperlink ref="I4" r:id="rId6" location="detail" xr:uid="{0492B8CD-CAB6-4349-B3EE-FE471ADEB81C}"/>
-    <hyperlink ref="I6" r:id="rId7" location="detail" xr:uid="{B7CE4BBE-5285-46B0-9D01-72B890A83875}"/>
+    <hyperlink ref="C4" r:id="rId1" location="detail"/>
+    <hyperlink ref="C5" r:id="rId2" location="detail"/>
+    <hyperlink ref="C6" r:id="rId3" location="detail"/>
+    <hyperlink ref="C7" r:id="rId4" location="detail"/>
+    <hyperlink ref="C8" r:id="rId5" location="detail"/>
+    <hyperlink ref="C9" r:id="rId6"/>
+    <hyperlink ref="C10" r:id="rId7"/>
+    <hyperlink ref="C11" r:id="rId8" location="detail"/>
+    <hyperlink ref="I12" r:id="rId9"/>
+    <hyperlink ref="C13" r:id="rId10"/>
+    <hyperlink ref="C14" r:id="rId11"/>
+    <hyperlink ref="C15" r:id="rId12" location="detail"/>
+    <hyperlink ref="C16" r:id="rId13"/>
+    <hyperlink ref="C12" r:id="rId14"/>
+    <hyperlink ref="C17" r:id="rId15" location="detail"/>
+    <hyperlink ref="C18" r:id="rId16" location="detail"/>
+    <hyperlink ref="C19" r:id="rId17" location="detail"/>
+    <hyperlink ref="C20" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CC986ED-F0B7-4ED2-A77A-1602103AC320}">
-  <dimension ref="A4:G11"/>
-  <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9.140625" style="14"/>
-    <col min="2" max="2" width="15.140625" style="14" customWidth="1"/>
-    <col min="3" max="3" width="48.42578125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" style="11" customWidth="1"/>
-    <col min="6" max="6" width="47" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="11"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="12">
-        <v>1</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="16">
-        <v>180</v>
-      </c>
-      <c r="F6" s="13"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="12">
-        <v>2</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" s="16">
-        <v>160</v>
-      </c>
-      <c r="F7" s="13"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="12">
-        <v>3</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="16">
-        <v>106</v>
-      </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="16"/>
-    </row>
-    <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
-        <v>4</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="16">
-        <v>100</v>
-      </c>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16"/>
-    </row>
-    <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
-        <v>5</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="16">
-        <v>55</v>
-      </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
-        <v>6</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="16">
-        <v>180</v>
-      </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:E4"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" location="detail" xr:uid="{F81D596F-6D86-484C-B9D7-DA850D555222}"/>
-    <hyperlink ref="C7" r:id="rId2" location="detail" xr:uid="{06E00F65-D923-42D0-8ABC-C11D85F3DFFD}"/>
-    <hyperlink ref="C8" r:id="rId3" xr:uid="{64851406-8526-4633-89BD-8205BD3233C5}"/>
-    <hyperlink ref="C9" r:id="rId4" location="detail" xr:uid="{F61102CF-ED6C-48C3-89B0-745D8A6D29BE}"/>
-    <hyperlink ref="C10" r:id="rId5" location="detail" xr:uid="{6974444D-757E-45AA-8CA1-69542B3F951C}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
--- a/linh kien new.xlsx
+++ b/linh kien new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Git_Thaobk91\smf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03.Git\smf\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF45A7-007F-4170-BCD6-81D4F91EE9E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>STT</t>
   </si>
@@ -153,19 +154,25 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=2013.1.w4004-13949065572.22.38d832c9kPcbJo&amp;id=552157172714</t>
+  </si>
+  <si>
+    <t>USB connector female</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.8.f362434dHYJdPm&amp;id=570027832706&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_ [$¥-804]* #,##0.00_ ;_ [$¥-804]* \-#,##0.00_ ;_ [$¥-804]* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="166" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -181,20 +188,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -238,54 +257,54 @@
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -604,71 +623,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="53.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="53.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G2" s="7"/>
-      <c r="H2" s="9"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="A4" s="6">
+        <v>1</v>
+      </c>
+      <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
+      <c r="D4" s="6">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
         <v>16.5</v>
       </c>
       <c r="F4" s="10">
@@ -678,25 +697,25 @@
         <f>E4*F4</f>
         <v>57750</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="11">
         <f t="shared" ref="H4:H8" si="0">G4*D4</f>
         <v>57750</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="6">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="12">
+      <c r="D5" s="6">
+        <v>1</v>
+      </c>
+      <c r="E5" s="9">
         <v>5.5</v>
       </c>
       <c r="F5" s="10">
@@ -706,25 +725,25 @@
         <f t="shared" ref="G5:G24" si="1">E5*F5</f>
         <v>19250</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="11">
         <f t="shared" si="0"/>
         <v>19250</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6" s="6">
         <v>3</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="2">
-        <v>1</v>
-      </c>
-      <c r="E6" s="12">
+      <c r="D6" s="6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="9">
         <v>4</v>
       </c>
       <c r="F6" s="10">
@@ -734,25 +753,25 @@
         <f t="shared" si="1"/>
         <v>14000</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="11">
         <f t="shared" si="0"/>
         <v>14000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="6">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="2">
-        <v>1</v>
-      </c>
-      <c r="E7" s="12">
+      <c r="D7" s="6">
+        <v>1</v>
+      </c>
+      <c r="E7" s="9">
         <v>60</v>
       </c>
       <c r="F7" s="10">
@@ -762,25 +781,25 @@
         <f t="shared" si="1"/>
         <v>210000</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>210000</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8" s="6">
         <v>5</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2">
-        <v>1</v>
-      </c>
-      <c r="E8" s="12">
+      <c r="D8" s="6">
+        <v>1</v>
+      </c>
+      <c r="E8" s="9">
         <v>4.0999999999999996</v>
       </c>
       <c r="F8" s="10">
@@ -790,25 +809,25 @@
         <f t="shared" si="1"/>
         <v>14349.999999999998</v>
       </c>
-      <c r="H8" s="8">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>14349.999999999998</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9" s="6">
         <v>6</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="12">
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="9">
         <v>7</v>
       </c>
       <c r="F9" s="10">
@@ -818,25 +837,25 @@
         <f t="shared" si="1"/>
         <v>24500</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="11">
         <f t="shared" ref="H9:H24" si="2">G9*D9</f>
         <v>24500</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="6">
         <v>7</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="2">
-        <v>1</v>
-      </c>
-      <c r="E10" s="12">
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="9">
         <v>10</v>
       </c>
       <c r="F10" s="10">
@@ -846,25 +865,25 @@
         <f t="shared" si="1"/>
         <v>35000</v>
       </c>
-      <c r="H10" s="8">
+      <c r="H10" s="11">
         <f t="shared" si="2"/>
         <v>35000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11" s="6">
         <v>8</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="2">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
+      <c r="D11" s="6">
+        <v>1</v>
+      </c>
+      <c r="E11" s="9">
         <v>0.7</v>
       </c>
       <c r="F11" s="10">
@@ -874,22 +893,22 @@
         <f t="shared" si="1"/>
         <v>2450</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="11">
         <f t="shared" si="2"/>
         <v>2450</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="6">
         <v>9</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>1</v>
       </c>
       <c r="E12" s="13">
@@ -902,28 +921,28 @@
         <f t="shared" si="1"/>
         <v>184000</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="11">
         <f t="shared" si="2"/>
         <v>184000</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" s="8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13" s="6">
         <v>10</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="12">
+      <c r="D13" s="6">
+        <v>1</v>
+      </c>
+      <c r="E13" s="9">
         <v>8.6</v>
       </c>
       <c r="F13" s="10">
@@ -933,25 +952,25 @@
         <f t="shared" si="1"/>
         <v>30100</v>
       </c>
-      <c r="H13" s="8">
+      <c r="H13" s="11">
         <f t="shared" si="2"/>
         <v>30100</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14" s="6">
         <v>11</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
-      </c>
-      <c r="E14" s="12">
+      <c r="D14" s="6">
+        <v>1</v>
+      </c>
+      <c r="E14" s="9">
         <v>0.6</v>
       </c>
       <c r="F14" s="10">
@@ -961,25 +980,25 @@
         <f t="shared" si="1"/>
         <v>2100</v>
       </c>
-      <c r="H14" s="8">
+      <c r="H14" s="11">
         <f t="shared" si="2"/>
         <v>2100</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15" s="6">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12">
+      <c r="D15" s="6">
+        <v>1</v>
+      </c>
+      <c r="E15" s="9">
         <v>0.05</v>
       </c>
       <c r="F15" s="10">
@@ -989,22 +1008,22 @@
         <f t="shared" si="1"/>
         <v>175</v>
       </c>
-      <c r="H15" s="8">
+      <c r="H15" s="11">
         <f t="shared" si="2"/>
         <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16" s="6">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="2">
+      <c r="D16" s="6">
         <v>1</v>
       </c>
       <c r="E16" s="14">
@@ -1017,25 +1036,25 @@
         <f t="shared" si="1"/>
         <v>172500</v>
       </c>
-      <c r="H16" s="8">
+      <c r="H16" s="11">
         <f t="shared" si="2"/>
         <v>172500</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17" s="6">
         <v>14</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12">
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="9">
         <v>108</v>
       </c>
       <c r="F17" s="10">
@@ -1045,25 +1064,25 @@
         <f t="shared" si="1"/>
         <v>378000</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="11">
         <f t="shared" si="2"/>
         <v>378000</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18" s="6">
         <v>15</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="D18" s="2">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12">
+      <c r="D18" s="6">
+        <v>1</v>
+      </c>
+      <c r="E18" s="9">
         <v>1.5</v>
       </c>
       <c r="F18" s="10">
@@ -1073,23 +1092,25 @@
         <f t="shared" si="1"/>
         <v>5250</v>
       </c>
-      <c r="H18" s="8">
+      <c r="H18" s="11">
         <f t="shared" si="2"/>
         <v>5250</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="3" t="s">
+      <c r="A19" s="6">
+        <v>16</v>
+      </c>
+      <c r="B19" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="2">
-        <v>1</v>
-      </c>
-      <c r="E19" s="12">
+      <c r="D19" s="6">
+        <v>1</v>
+      </c>
+      <c r="E19" s="9">
         <v>0.4</v>
       </c>
       <c r="F19" s="10">
@@ -1099,24 +1120,26 @@
         <f t="shared" si="1"/>
         <v>1400</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="11">
         <f t="shared" si="2"/>
         <v>1400</v>
       </c>
-      <c r="I19" s="11"/>
+      <c r="I19" s="12"/>
     </row>
     <row r="20" spans="1:9" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3" t="s">
+      <c r="A20" s="6">
+        <v>17</v>
+      </c>
+      <c r="B20" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D20" s="2">
-        <v>1</v>
-      </c>
-      <c r="E20" s="3">
+      <c r="D20" s="6">
+        <v>1</v>
+      </c>
+      <c r="E20" s="7">
         <v>12</v>
       </c>
       <c r="F20" s="10">
@@ -1126,79 +1149,95 @@
         <f t="shared" si="1"/>
         <v>42000</v>
       </c>
-      <c r="H20" s="8">
+      <c r="H20" s="11">
         <f t="shared" si="2"/>
         <v>42000</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3"/>
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="6">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>15.8</v>
+      </c>
       <c r="F21" s="10">
         <v>3500</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="1"/>
+        <v>55300</v>
+      </c>
+      <c r="H21" s="11">
+        <f t="shared" si="2"/>
+        <v>55300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <v>19</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="8">
+      <c r="H22" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="10">
-        <v>3500</v>
-      </c>
-      <c r="G22" s="10">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>20</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G23" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H22" s="8">
+      <c r="H23" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="10">
-        <v>3500</v>
-      </c>
-      <c r="G23" s="10">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <v>21</v>
+      </c>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="10">
+        <v>3500</v>
+      </c>
+      <c r="G24" s="10">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H23" s="8">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="10">
-        <v>3500</v>
-      </c>
-      <c r="G24" s="10">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H24" s="8">
+      <c r="H24" s="11">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1206,31 +1245,32 @@
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="15">
         <f>SUM(H4:H24)</f>
-        <v>1192825</v>
+        <v>1248125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" location="detail"/>
-    <hyperlink ref="C5" r:id="rId2" location="detail"/>
-    <hyperlink ref="C6" r:id="rId3" location="detail"/>
-    <hyperlink ref="C7" r:id="rId4" location="detail"/>
-    <hyperlink ref="C8" r:id="rId5" location="detail"/>
-    <hyperlink ref="C9" r:id="rId6"/>
-    <hyperlink ref="C10" r:id="rId7"/>
-    <hyperlink ref="C11" r:id="rId8" location="detail"/>
-    <hyperlink ref="I12" r:id="rId9"/>
-    <hyperlink ref="C13" r:id="rId10"/>
-    <hyperlink ref="C14" r:id="rId11"/>
-    <hyperlink ref="C15" r:id="rId12" location="detail"/>
-    <hyperlink ref="C16" r:id="rId13"/>
-    <hyperlink ref="C12" r:id="rId14"/>
-    <hyperlink ref="C17" r:id="rId15" location="detail"/>
-    <hyperlink ref="C18" r:id="rId16" location="detail"/>
-    <hyperlink ref="C19" r:id="rId17" location="detail"/>
-    <hyperlink ref="C20" r:id="rId18"/>
+    <hyperlink ref="C4" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" location="detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" r:id="rId3" location="detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" r:id="rId4" location="detail" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" r:id="rId5" location="detail" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C15" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId15" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId16" location="detail" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId17" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C21" r:id="rId19" location="detail" xr:uid="{D101FB1C-C284-43FF-BA8C-FE75B7B48419}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
--- a/linh kien new.xlsx
+++ b/linh kien new.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\03.Git\smf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01.Git_Thaobk91\smf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EF45A7-007F-4170-BCD6-81D4F91EE9E6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>STT</t>
   </si>
@@ -72,9 +71,6 @@
     <t>sma to ipex for antenna</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.168.72667503nhdlvQ&amp;id=524721396904&amp;ns=1&amp;abbucket=12#detail</t>
-  </si>
-  <si>
     <t>raspberry pi 0</t>
   </si>
   <si>
@@ -160,6 +156,27 @@
   </si>
   <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.8.f362434dHYJdPm&amp;id=570027832706&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.251.494c1300NYFWb6&amp;id=558745367788&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a230r.1.14.65.47a817b327wa19&amp;id=558410900096&amp;ns=1&amp;abbucket=12&amp;skuId=3473058341500</t>
+  </si>
+  <si>
+    <t>Header 2P CH5.08</t>
+  </si>
+  <si>
+    <t>IC sạc solar</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.15.4d55345721xIil&amp;id=560581971677&amp;ns=1&amp;abbucket=12#detail</t>
+  </si>
+  <si>
+    <t>IC nguồn cho 3G</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.4eb5395djqthGh&amp;id=559062329528&amp;ns=1&amp;abbucket=12#detail</t>
   </si>
 </sst>
 </file>
@@ -260,7 +277,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -305,6 +322,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,10 +682,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -763,10 +783,10 @@
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>44</v>
       </c>
       <c r="D7" s="6">
         <v>1</v>
@@ -791,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
         <v>1</v>
@@ -819,10 +839,10 @@
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>20</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -847,10 +867,10 @@
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>22</v>
       </c>
       <c r="D10" s="6">
         <v>1</v>
@@ -875,10 +895,10 @@
         <v>8</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>23</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>24</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
@@ -903,10 +923,10 @@
         <v>9</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D12" s="6">
         <v>1</v>
@@ -926,7 +946,7 @@
         <v>184000</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
@@ -934,7 +954,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>3</v>
@@ -962,7 +982,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>5</v>
@@ -990,7 +1010,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>8</v>
@@ -1018,10 +1038,10 @@
         <v>13</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D16" s="6">
         <v>1</v>
@@ -1046,10 +1066,10 @@
         <v>14</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>35</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>36</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -1074,10 +1094,10 @@
         <v>15</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>37</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>38</v>
       </c>
       <c r="D18" s="6">
         <v>1</v>
@@ -1102,10 +1122,10 @@
         <v>16</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>40</v>
       </c>
       <c r="D19" s="6">
         <v>1</v>
@@ -1131,10 +1151,10 @@
         <v>17</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>41</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>42</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
@@ -1159,10 +1179,10 @@
         <v>18</v>
       </c>
       <c r="B21" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>43</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>44</v>
       </c>
       <c r="D21" s="6">
         <v>1</v>
@@ -1182,70 +1202,94 @@
         <v>55300</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <v>19</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="6">
+        <v>1</v>
+      </c>
+      <c r="E22" s="7">
+        <v>0.5</v>
+      </c>
       <c r="F22" s="10">
         <v>3500</v>
       </c>
       <c r="G22" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <v>20</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="6">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>7.7</v>
+      </c>
       <c r="F23" s="10">
         <v>3500</v>
       </c>
       <c r="G23" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>26950</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <v>21</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="6">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1.5</v>
+      </c>
       <c r="F24" s="10">
         <v>3500</v>
       </c>
       <c r="G24" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5250</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5250</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H25" s="15">
         <f>SUM(H4:H24)</f>
-        <v>1248125</v>
+        <v>1282075</v>
       </c>
     </row>
   </sheetData>
@@ -1253,24 +1297,27 @@
     <hyperlink ref="C4" r:id="rId1" location="detail" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="C5" r:id="rId2" location="detail" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
     <hyperlink ref="C6" r:id="rId3" location="detail" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="C7" r:id="rId4" location="detail" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C8" r:id="rId5" location="detail" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="C11" r:id="rId8" location="detail" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="I12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="C14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="C15" r:id="rId12" location="detail" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="C16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="C12" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="C17" r:id="rId15" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="C18" r:id="rId16" location="detail" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="C19" r:id="rId17" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="C20" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="C21" r:id="rId19" location="detail" xr:uid="{D101FB1C-C284-43FF-BA8C-FE75B7B48419}"/>
+    <hyperlink ref="C8" r:id="rId4" location="detail" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" r:id="rId7" location="detail" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="I12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C15" r:id="rId11" location="detail" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="C16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="C12" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="C17" r:id="rId14" location="detail" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="C18" r:id="rId15" location="detail" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="C19" r:id="rId16" location="detail" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="C20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="C21" r:id="rId18" location="detail" xr:uid="{D101FB1C-C284-43FF-BA8C-FE75B7B48419}"/>
+    <hyperlink ref="C7" r:id="rId19" location="detail" xr:uid="{BB9D4DD2-4AC5-45AE-98F6-5F8EED130219}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{945E2F35-966F-422F-8714-34554D58C7B1}"/>
+    <hyperlink ref="C23" r:id="rId21" location="detail" xr:uid="{CF8AF928-B988-4BB5-8D1D-EA6D64B8B08B}"/>
+    <hyperlink ref="C24" r:id="rId22" location="detail" xr:uid="{CCD60422-E320-4AF2-B25A-BDD72F312A33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>